--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1838.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1838.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.237015284613298</v>
+        <v>0.7480742335319519</v>
       </c>
       <c r="B1">
-        <v>1.335701744738895</v>
+        <v>3.40905237197876</v>
       </c>
       <c r="C1">
-        <v>1.381676605635851</v>
+        <v>4.472925186157227</v>
       </c>
       <c r="D1">
-        <v>1.762651374530223</v>
+        <v>1.879132390022278</v>
       </c>
       <c r="E1">
-        <v>2.757741744457054</v>
+        <v>0.7811850309371948</v>
       </c>
     </row>
   </sheetData>
